--- a/IMDB Movie Ratings.xlsx
+++ b/IMDB Movie Ratings.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Movie Rank</t>
+          <t>Rank</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Movie Name</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1397,12 +1397,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Harakiri</t>
+          <t>Grave of the Fireflies</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Grave of the Fireflies</t>
+          <t>Harakiri</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">

--- a/IMDB Movie Ratings.xlsx
+++ b/IMDB Movie Ratings.xlsx
@@ -935,12 +935,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>City of God</t>
+          <t>Saving Private Ryan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Saving Private Ryan</t>
+          <t>City of God</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Top Gun: Maverick</t>
+          <t>Scarface</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Scarface</t>
+          <t>Top Gun: Maverick</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3333,12 +3333,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Green Book</t>
+          <t>The Wolf of Wall Street</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3355,12 +3355,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>The Wolf of Wall Street</t>
+          <t>Green Book</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5577,12 +5577,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>My Father and My Son</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>My Father and My Son</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5841,12 +5841,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>The Help</t>
+          <t>Dersu Uzala</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5863,12 +5863,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Dersu Uzala</t>
+          <t>The Help</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
